--- a/TaskExcelFile.xlsx
+++ b/TaskExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAYAKUMAR P\eclipse-workspace\TaskDemoShopBlaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB29A2DB-7B9B-4423-A15D-B422175B28D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66602CB-546D-4BC3-9970-C8E0180FD30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -35,10 +35,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>Vignesh12344455555@gmail.com</t>
+    <t>Vignesh1233345445647838843245@gmail.com</t>
   </si>
   <si>
-    <t>Vignesh12309974838843245@gmail.com</t>
+    <t>Vignesh2333536363455@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -83,12 +83,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD62EC81-23F8-499F-9F84-6FA6F8D292EC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,7 +428,7 @@
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -434,10 +437,19 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D8143D5F-A9AF-451B-80EE-002CC53CCDC2}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{692CF1F2-922C-4955-800E-3BA2A6560983}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{82773612-68A5-4291-A798-651E8658E224}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{D8143D5F-A9AF-451B-80EE-002CC53CCDC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC0D8B-3B5C-453A-959F-07456DE395FD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,10 +481,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3C01B851-64C8-48E0-99BB-A4EB552FF1A3}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{25D0D344-45A1-4DC7-B796-5A9B027AC67D}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{98AD1441-49C3-411F-B08E-930757BF1DCB}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{B3BD0D6B-419B-4ACA-A7B8-B608CE519429}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{C9F5CB7F-7305-437B-8D93-534E2C9880A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
